--- a/src/_static/xlsx/tab_Tipo_indirizzo.xlsx
+++ b/src/_static/xlsx/tab_Tipo_indirizzo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Ultima residenza italiana</t>
+  </si>
+  <si>
+    <t>Residenza temporanea</t>
+  </si>
+  <si>
+    <t>Revisione onomastica stradale</t>
   </si>
 </sst>
 </file>
@@ -400,11 +406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -491,10 +497,26 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -503,4 +525,145 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AFA1FC-93CE-4848-A473-521D0B6E1ABA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA2D4C2C-8AEA-4726-B748-421A7F4425F3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34052E35-5CBA-457D-9CFC-CA86E48857F0}"/>
 </file>
--- a/src/_static/xlsx/tab_Tipo_indirizzo.xlsx
+++ b/src/_static/xlsx/tab_Tipo_indirizzo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Revisione onomastica stradale</t>
+  </si>
+  <si>
+    <t>Rettifica post accertamenti</t>
   </si>
 </sst>
 </file>
@@ -406,17 +409,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625"/>
-    <col min="2" max="2" width="21.1640625"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625"/>
     <col min="4" max="4" width="17.1640625"/>
     <col min="5" max="5" width="16"/>
@@ -519,6 +522,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F10">
     <sortCondition ref="A2:A10"/>
@@ -528,6 +539,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -641,29 +667,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AFA1FC-93CE-4848-A473-521D0B6E1ABA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34052E35-5CBA-457D-9CFC-CA86E48857F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA2D4C2C-8AEA-4726-B748-421A7F4425F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA2D4C2C-8AEA-4726-B748-421A7F4425F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34052E35-5CBA-457D-9CFC-CA86E48857F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AFA1FC-93CE-4848-A473-521D0B6E1ABA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>